--- a/src/test/resources/Excel Files/ljSignUpUsingBuildResumeOption.xlsx
+++ b/src/test/resources/Excel Files/ljSignUpUsingBuildResumeOption.xlsx
@@ -76,9 +76,6 @@
     <t>SubjectName</t>
   </si>
   <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
     <t>Duke University School of Law</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Bac Professionnel</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -582,14 +582,14 @@
       <c r="K2" s="2">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
